--- a/data/trans_orig/P14A22-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0780D27-230C-4C1E-B8C9-18D817A34F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{744B582E-F994-4C94-8DE2-55A04C773058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB288D4B-8169-4DED-8F7C-F8C9CF05F5E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A4A79D5-72B0-426E-947C-8651322B8B7C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>50,39%</t>
+    <t>47,85%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>92,99%</t>
   </si>
   <si>
-    <t>63,27%</t>
+    <t>65,88%</t>
   </si>
   <si>
     <t>10,01%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>49,61%</t>
+    <t>52,15%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>36,73%</t>
+    <t>34,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -156,49 +156,49 @@
     <t>62,44%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>19,54%</t>
+    <t>19,68%</t>
   </si>
   <si>
     <t>61,63%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
   </si>
   <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>80,46%</t>
+    <t>80,32%</t>
   </si>
   <si>
     <t>38,37%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -240,40 +240,40 @@
     <t>59,73%</t>
   </si>
   <si>
-    <t>18,88%</t>
+    <t>18,78%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>36,18%</t>
+    <t>36,94%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>81,12%</t>
+    <t>81,22%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>63,82%</t>
+    <t>63,06%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>67,04%</t>
+    <t>70,64%</t>
   </si>
   <si>
     <t>96,16%</t>
@@ -282,19 +282,19 @@
     <t>84,16%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>12,2%</t>
@@ -303,16 +303,16 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>32,96%</t>
+    <t>29,36%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -330,13 +330,13 @@
     <t>82,57%</t>
   </si>
   <si>
-    <t>30,83%</t>
+    <t>30,99%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>69,17%</t>
+    <t>69,01%</t>
   </si>
   <si>
     <t>68,92%</t>
@@ -345,7 +345,7 @@
     <t>89,12%</t>
   </si>
   <si>
-    <t>48,52%</t>
+    <t>45,76%</t>
   </si>
   <si>
     <t>31,08%</t>
@@ -354,7 +354,7 @@
     <t>10,88%</t>
   </si>
   <si>
-    <t>51,48%</t>
+    <t>54,24%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -369,7 +369,7 @@
     <t>68,55%</t>
   </si>
   <si>
-    <t>29,23%</t>
+    <t>30,29%</t>
   </si>
   <si>
     <t>50,2%</t>
@@ -378,55 +378,55 @@
     <t>31,45%</t>
   </si>
   <si>
-    <t>70,77%</t>
+    <t>69,71%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>62,62%</t>
+    <t>66,68%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>33,32%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
 </sst>
 </file>
@@ -838,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE32C2-538D-4CA4-AAD0-C7F454A20E70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574646D-37B6-4B8E-8478-C28C3D4A5F23}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2351,7 +2351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E642C1F0-6C9D-4B7A-AC9F-5DF75717A697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81378F57-D682-4B67-9B65-6978D3AFE497}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A22-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744B582E-F994-4C94-8DE2-55A04C773058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4013A9D8-6D98-4FD4-A335-C13596CA95D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A4A79D5-72B0-426E-947C-8651322B8B7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{901DC980-8437-4348-8808-888647D02913}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="128">
   <si>
     <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>89,99%</t>
   </si>
   <si>
-    <t>47,85%</t>
+    <t>49,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>92,99%</t>
   </si>
   <si>
-    <t>65,88%</t>
+    <t>66,88%</t>
   </si>
   <si>
     <t>10,01%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>52,15%</t>
+    <t>50,97%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>34,12%</t>
+    <t>33,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -135,7 +135,7 @@
     <t>78,37%</t>
   </si>
   <si>
-    <t>18,46%</t>
+    <t>17,63%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -147,7 +147,7 @@
     <t>21,63%</t>
   </si>
   <si>
-    <t>81,54%</t>
+    <t>82,37%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -156,49 +156,49 @@
     <t>62,44%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>19,68%</t>
+    <t>19,52%</t>
   </si>
   <si>
     <t>61,63%</t>
   </si>
   <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>80,32%</t>
+    <t>80,48%</t>
   </si>
   <si>
     <t>38,37%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -246,7 +246,7 @@
     <t>75,12%</t>
   </si>
   <si>
-    <t>36,94%</t>
+    <t>36,52%</t>
   </si>
   <si>
     <t>40,27%</t>
@@ -258,67 +258,61 @@
     <t>24,88%</t>
   </si>
   <si>
-    <t>63,06%</t>
+    <t>63,48%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>68,31%</t>
@@ -330,13 +324,13 @@
     <t>82,57%</t>
   </si>
   <si>
-    <t>30,99%</t>
+    <t>30,83%</t>
   </si>
   <si>
     <t>17,43%</t>
   </si>
   <si>
-    <t>69,01%</t>
+    <t>69,17%</t>
   </si>
   <si>
     <t>68,92%</t>
@@ -345,7 +339,7 @@
     <t>89,12%</t>
   </si>
   <si>
-    <t>45,76%</t>
+    <t>45,57%</t>
   </si>
   <si>
     <t>31,08%</t>
@@ -354,7 +348,7 @@
     <t>10,88%</t>
   </si>
   <si>
-    <t>54,24%</t>
+    <t>54,43%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -369,7 +363,7 @@
     <t>68,55%</t>
   </si>
   <si>
-    <t>30,29%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>50,2%</t>
@@ -378,55 +372,55 @@
     <t>31,45%</t>
   </si>
   <si>
-    <t>69,71%</t>
+    <t>71,53%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>66,68%</t>
+    <t>64,76%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>33,32%</t>
+    <t>35,24%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
 </sst>
 </file>
@@ -838,7 +832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4574646D-37B6-4B8E-8478-C28C3D4A5F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7AF398-4A2D-4701-9636-998DE19B16E4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,13 +2229,13 @@
         <v>6085</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2250,13 +2244,13 @@
         <v>3096</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2265,13 +2259,13 @@
         <v>9180</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81378F57-D682-4B67-9B65-6978D3AFE497}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B191C7C-E863-43B6-AB8C-97F10419B3C9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2368,7 +2362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2475,7 +2469,7 @@
         <v>1727</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>22</v>
@@ -2503,7 +2497,7 @@
         <v>1727</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
@@ -2524,7 +2518,7 @@
         <v>802</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
@@ -2552,7 +2546,7 @@
         <v>802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>22</v>
@@ -2624,10 +2618,10 @@
         <v>5112</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2652,10 +2646,10 @@
         <v>5112</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2673,13 +2667,13 @@
         <v>1079</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2701,13 +2695,13 @@
         <v>1079</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2922,7 @@
         <v>1991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
@@ -2958,10 +2952,10 @@
         <v>7360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2979,7 +2973,7 @@
         <v>898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
@@ -3009,13 +3003,13 @@
         <v>898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -3170,7 +3164,7 @@
         <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,7 +3396,7 @@
         <v>2377</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
@@ -3417,10 +3411,10 @@
         <v>5223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3453,7 +3447,7 @@
         <v>2396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>22</v>
@@ -3468,13 +3462,13 @@
         <v>2396</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3685,13 @@
         <v>18789</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -3706,10 +3700,10 @@
         <v>18404</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>16</v>
@@ -3721,13 +3715,13 @@
         <v>37194</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3736,13 @@
         <v>2779</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3757,13 +3751,13 @@
         <v>2396</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3772,13 +3766,13 @@
         <v>5174</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3828,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
